--- a/core/seed_employees_employeejob.xlsx
+++ b/core/seed_employees_employeejob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.cheng\Documents\Visual Studio Code\Django\p_sys01_repo01\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F883BBFA-4EF4-4D96-ABF5-2BC93C73CAB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D58C1-0E0A-45B2-9B18-27746555BC06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>NAME</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>ACCOUNTANT</t>
+  </si>
+  <si>
+    <t>PURCHASER</t>
+  </si>
+  <si>
+    <t>SALES</t>
   </si>
 </sst>
 </file>
@@ -890,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,6 +954,16 @@
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
